--- a/files/recipes_model.xlsx
+++ b/files/recipes_model.xlsx
@@ -2,14 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Админ\PycharmProjects\data-processing-technologies\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Модель книги" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,23 +23,185 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Р РµС†РµРїС‚</t>
+  </si>
+  <si>
+    <t>РќР°Р·РІР°РЅРёРµ СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ID СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Р”Р»РёС‚РµР»СЊРЅРѕСЃС‚СЊ РІС‹РїРѕР»РЅРµРЅРёСЏ РІ РјРёРЅСѓС‚Р°С…</t>
+  </si>
+  <si>
+    <t>contributor_id</t>
+  </si>
+  <si>
+    <t>ID Р°РІС‚РѕСЂР° СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>submitted</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>Р”Р°С‚Р° РґРѕР±Р°РІР»РµРЅРёСЏ</t>
+  </si>
+  <si>
+    <t>n_steps</t>
+  </si>
+  <si>
+    <t>РљРѕР»-РІРѕ С€Р°РіРѕРІ СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>РћРїРёСЃР°РЅРёРµ СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>n_ingredients</t>
+  </si>
+  <si>
+    <t>РљРѕР»-РІРѕ РёРЅРіСЂРµРґРёРµРЅС‚РѕРІ РІ СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>РћС‚Р·С‹РІ</t>
+  </si>
+  <si>
+    <t>ID РѕС‚Р·С‹РІР°</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>ID Р°РІС‚РѕСЂР° РѕС‚Р·С‹РІР°</t>
+  </si>
+  <si>
+    <t>recipe_id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Р”Р°С‚Р° РґРѕР±Р°РІР»РµРЅРёСЏ РѕС‚Р·С‹РІР°</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Р РµР№С‚РёРЅРі РѕС‚Р·С‹РІР°</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>РўРµРєСЃС‚РѕРІРѕРµ РѕРїРёСЃР°РЅРёРµ РѕС‚Р·С‹РІР°</t>
+  </si>
+  <si>
+    <t>РџРѕР»СЊР·РѕРІР°С‚РµР»СЊ</t>
+  </si>
+  <si>
+    <t>ID РїРѕР»СЊР·РѕРІР°С‚РµР»СЏ</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>Р›РѕРіРёРЅ РїРѕР»СЊР·РѕРІР°С‚РµР»СЏ</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>Р”Р°С‚Р° СЂРµРіРёСЃС‚СЂР°С†РёРё РїРѕР»СЊР·РѕРІР°С‚РµР»СЏ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +237,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,14 +277,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -149,9 +317,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -181,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +499,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/recipes_model.xlsx
+++ b/files/recipes_model.xlsx
@@ -1,31 +1,193 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Артём\PycharmProjects\Finuniversity\TOD\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFDFB7E9-4ABB-42DA-9BA4-5481ECEF1267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="12852" windowHeight="12240" xr2:uid="{461E85C5-1004-4EB7-9DD8-6801649DE6D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Модель книги" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Р РµС†РµРїС‚</t>
+  </si>
+  <si>
+    <t>РќР°Р·РІР°РЅРёРµ СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ID СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Р”Р»РёС‚РµР»СЊРЅРѕСЃС‚СЊ РІС‹РїРѕР»РЅРµРЅРёСЏ РІ РјРёРЅСѓС‚Р°С…</t>
+  </si>
+  <si>
+    <t>contributor_id</t>
+  </si>
+  <si>
+    <t>ID Р°РІС‚РѕСЂР° СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>submitted</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>Р”Р°С‚Р° РґРѕР±Р°РІР»РµРЅРёСЏ</t>
+  </si>
+  <si>
+    <t>n_steps</t>
+  </si>
+  <si>
+    <t>РљРѕР»-РІРѕ С€Р°РіРѕРІ СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>РћРїРёСЃР°РЅРёРµ СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>n_ingredients</t>
+  </si>
+  <si>
+    <t>РљРѕР»-РІРѕ РёРЅРіСЂРµРґРёРµРЅС‚РѕРІ РІ СЂРµС†РµРїС‚Р°</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>РћС‚Р·С‹РІ</t>
+  </si>
+  <si>
+    <t>ID РѕС‚Р·С‹РІР°</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>ID Р°РІС‚РѕСЂР° РѕС‚Р·С‹РІР°</t>
+  </si>
+  <si>
+    <t>recipe_id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Р”Р°С‚Р° РґРѕР±Р°РІР»РµРЅРёСЏ РѕС‚Р·С‹РІР°</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Р РµР№С‚РёРЅРі РѕС‚Р·С‹РІР°</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>РўРµРєСЃС‚РѕРІРѕРµ РѕРїРёСЃР°РЅРёРµ РѕС‚Р·С‹РІР°</t>
+  </si>
+  <si>
+    <t>РџРѕР»СЊР·РѕРІР°С‚РµР»СЊ</t>
+  </si>
+  <si>
+    <t>ID РїРѕР»СЊР·РѕРІР°С‚РµР»СЏ</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>Р›РѕРіРёРЅ РїРѕР»СЊР·РѕРІР°С‚РµР»СЏ</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>Р”Р°С‚Р° СЂРµРіРёСЃС‚СЂР°С†РёРё РїРѕР»СЊР·РѕРІР°С‚РµР»СЏ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -85,7 +247,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +259,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -109,12 +271,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +306,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,9 +358,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -330,13 +526,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC63643-99A7-4569-BFAA-5935B2D630AB}">
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>